--- a/data_handler/config_calc_amount(India)/3-statistic_config-version 1day.xlsx
+++ b/data_handler/config_calc_amount(India)/3-statistic_config-version 1day.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF6F6CF-4C50-42B6-8E29-1E7AB50F2DF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD559D36-9788-4AE8-A26A-578537042E06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,7 +801,7 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="C2">
-            <v>44208</v>
+            <v>44221</v>
           </cell>
         </row>
       </sheetData>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C2" s="31">
         <f ca="1">TODAY()</f>
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>38</v>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B7" s="41" t="str">
         <f>TEXT('[1]2.time process'!$C$2-6,"YYYY/mm/dd")</f>
-        <v>2021/01/06</v>
+        <v>2021/01/19</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>16</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B8" s="41" t="str">
         <f>TEXT('[1]2.time process'!$C$2-5,"YYYY/mm/dd")</f>
-        <v>2021/01/07</v>
+        <v>2021/01/20</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>16</v>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B9" s="41" t="str">
         <f>TEXT('[1]2.time process'!$C$2-4,"YYYY/mm/dd")</f>
-        <v>2021/01/08</v>
+        <v>2021/01/21</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>16</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="B10" s="41" t="str">
         <f>TEXT('[1]2.time process'!$C$2-3,"YYYY/mm/dd")</f>
-        <v>2021/01/09</v>
+        <v>2021/01/22</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>16</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B11" s="41" t="str">
         <f>TEXT('[1]2.time process'!$C$2-2,"YYYY/mm/dd")</f>
-        <v>2021/01/10</v>
+        <v>2021/01/23</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>16</v>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B12" s="41" t="str">
         <f>TEXT('[1]2.time process'!$C$2-1,"YYYY/mm/dd")</f>
-        <v>2021/01/11</v>
+        <v>2021/01/24</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>16</v>
